--- a/data/lines.xlsx
+++ b/data/lines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswhite/Desktop/burbank_arts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3690430-2276-8D4D-80D9-A01336078771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBCDE90-76AD-4547-A4AA-AB2725D25998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="3240" windowWidth="21840" windowHeight="15040" tabRatio="790" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Professional Development" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +352,32 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -437,6 +463,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,7 +762,7 @@
   <dimension ref="A1:C839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -752,7 +785,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -763,7 +796,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -774,7 +807,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -785,7 +818,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1643,7 +1676,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1665,7 +1698,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1749,8 +1782,8 @@
   </sheetPr>
   <dimension ref="A1:E336"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1772,7 +1805,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1783,7 +1816,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -1794,7 +1827,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -1805,7 +1838,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -1825,7 +1858,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -1836,7 +1869,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1847,7 +1880,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -1858,7 +1891,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1869,7 +1902,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1880,7 +1913,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1891,7 +1924,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1902,7 +1935,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1913,7 +1946,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -1924,7 +1957,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1935,7 +1968,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1946,7 +1979,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1957,7 +1990,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -1968,7 +2001,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -1979,7 +2012,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -1990,7 +2023,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -2001,7 +2034,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -2012,7 +2045,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2023,7 +2056,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -2034,7 +2067,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -2045,7 +2078,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -2056,7 +2089,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -2067,7 +2100,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -2078,7 +2111,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -2089,7 +2122,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -2100,7 +2133,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -2111,7 +2144,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -2122,7 +2155,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -3632,8 +3665,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3660,7 +3693,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3671,7 +3704,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3766,8 +3799,8 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3790,7 +3823,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3804,7 +3837,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3815,7 +3848,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3826,7 +3859,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3837,7 +3870,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3848,7 +3881,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3859,7 +3892,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3870,7 +3903,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3898,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3B0F6E-9D0C-472F-B8F9-034E652FE208}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
